--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Code\GUI\年会抽奖软件\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E3988-DCF8-4016-8F6B-1F49E975FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0D2FF7-43EA-4562-B7A6-F580FE43C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
